--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value53.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value53.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.06911513146888</v>
+        <v>2.097369194030762</v>
       </c>
       <c r="B1">
-        <v>2.600076935740455</v>
+        <v>4.433632373809814</v>
       </c>
       <c r="C1">
-        <v>3.046760281389425</v>
+        <v>4.509809017181396</v>
       </c>
       <c r="D1">
-        <v>1.690407828826474</v>
+        <v>1.559965491294861</v>
       </c>
       <c r="E1">
-        <v>0.8904799594522218</v>
+        <v>1.42816162109375</v>
       </c>
     </row>
   </sheetData>
